--- a/漂流书架.xlsx
+++ b/漂流书架.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D57397-B7DA-417D-81FE-4FBD3E9938DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8659502C-AD4A-41AF-B9BA-AFD550E7E313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>书名</t>
   </si>
@@ -54,6 +54,41 @@
   </si>
   <si>
     <t>书籍编号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Java》</t>
+  </si>
+  <si>
+    <t>MrCai</t>
+  </si>
+  <si>
+    <t>程序设计</t>
+  </si>
+  <si>
+    <t>Ck-01</t>
+  </si>
+  <si>
+    <t>cyw</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>《Python: From newbie to nb》</t>
+  </si>
+  <si>
+    <t>Ck-02</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Ck-01
+Ck-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +514,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -504,7 +544,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
@@ -743,8 +822,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>

--- a/漂流书架.xlsx
+++ b/漂流书架.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8659502C-AD4A-41AF-B9BA-AFD550E7E313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE089DF-3C08-4427-84B5-29AC8958705D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>书名</t>
   </si>
@@ -75,21 +75,16 @@
     <t>hi</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>《Python: From newbie to nb》</t>
-  </si>
-  <si>
-    <t>Ck-02</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>Ck-01
-Ck-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>《python》</t>
+  </si>
+  <si>
+    <t>Mrcai</t>
+  </si>
+  <si>
+    <t>文学理论</t>
+  </si>
+  <si>
+    <t>Aa-01</t>
   </si>
 </sst>
 </file>
@@ -508,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A52407-C5B6-49FF-A6AD-1ECC40E51EC8}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
@@ -566,22 +561,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9558D692-8373-4255-A586-A679F150BD90}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -822,13 +817,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
